--- a/biology/Médecine/1219_en_santé_et_médecine/1219_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1219_en_santé_et_médecine/1219_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1219_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1219_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1219 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1219_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1219_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La  bulle Super speculam d’Honorius III, en interdisant l'étude de la médecine aux clercs munis des ordres majeurs, ne les empêche pas de la pratiquer à condition de ne pas en tirer profit[1].
-L'expression « facultatibus », appliquée dans un document aux écoles de Paris, rend ainsi probable l'existence de la faculté de médecine dès le début du XIIIe siècle[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La  bulle Super speculam d’Honorius III, en interdisant l'étude de la médecine aux clercs munis des ordres majeurs, ne les empêche pas de la pratiquer à condition de ne pas en tirer profit.
+L'expression « facultatibus », appliquée dans un document aux écoles de Paris, rend ainsi probable l'existence de la faculté de médecine dès le début du XIIIe siècle.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1219_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1219_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,17 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À Jérusalem, Shihab al-Dîn, neveu de Saladin, rend sa destination à l'ancien hôpital des frères de Saint-Jean[3].
-Un hôpital « bâti devant l'église [et] destiné à soulager les pauvres passants » est réuni par Bermond Cornut, archevêque d'Aix, à un autre établissement du domaine épiscopal[4].
-À Barcelone en Catalogne, fondation de « l'hôpital du chanoine Colomb » (hospital del canonge Colom), l'un des six établissements de la ville qui seront rassemblés en 1401 pour former « l'hôpital de la Sainte-Croix » (hospital de la Santa Creu)[5].
-Une maladrerie est attestée sur le territoire de la commune actuelle de Fontenay-sous-Bois, en Île-de-France[6].
-Un oratoire attenant à l'hôpital Saint-Sauveur de Lille « est construit pour les religieuses augustines chargées de l'accueil et des soins[7] ».
-Un hôpital dédié à Sainte-Catherine est fondé à Bedminster (en) près de Bristol dans l'actuelle région du Sud-Ouest, en Angleterre[8].
-L'hôpital Saint-Jean (Hospitalis Sancti Johannis) de Winchester dans le Hampshire en Angleterre, établissement probablement fondé au XIIe siècle ou au début du XIIIe, est mentionné pour la première fois[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À Jérusalem, Shihab al-Dîn, neveu de Saladin, rend sa destination à l'ancien hôpital des frères de Saint-Jean.
+Un hôpital « bâti devant l'église [et] destiné à soulager les pauvres passants » est réuni par Bermond Cornut, archevêque d'Aix, à un autre établissement du domaine épiscopal.
+À Barcelone en Catalogne, fondation de « l'hôpital du chanoine Colomb » (hospital del canonge Colom), l'un des six établissements de la ville qui seront rassemblés en 1401 pour former « l'hôpital de la Sainte-Croix » (hospital de la Santa Creu).
+Une maladrerie est attestée sur le territoire de la commune actuelle de Fontenay-sous-Bois, en Île-de-France.
+Un oratoire attenant à l'hôpital Saint-Sauveur de Lille « est construit pour les religieuses augustines chargées de l'accueil et des soins ».
+Un hôpital dédié à Sainte-Catherine est fondé à Bedminster (en) près de Bristol dans l'actuelle région du Sud-Ouest, en Angleterre.
+L'hôpital Saint-Jean (Hospitalis Sancti Johannis) de Winchester dans le Hampshire en Angleterre, établissement probablement fondé au XIIe siècle ou au début du XIIIe, est mentionné pour la première fois.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1219_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1219_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ali el-Tarablufi (ou Ali de Tripoli) rédige un traité de pharmacie : l'Ornamentum medici, tractacus chymico-medicus[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ali el-Tarablufi (ou Ali de Tripoli) rédige un traité de pharmacie : l'Ornamentum medici, tractacus chymico-medicus.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1219_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1219_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1171-1219 : fl.  Raoul (Radulphus), l'un des « deux premiers médecins narbonnais connus [avec Bremond (1155-1159)], l'un et l'autre parmi les plus proches d'Ermengarde, vicomtesse de Narbonne[11] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1171-1219 : fl.  Raoul (Radulphus), l'un des « deux premiers médecins narbonnais connus [avec Bremond (1155-1159)], l'un et l'autre parmi les plus proches d'Ermengarde, vicomtesse de Narbonne ».</t>
         </is>
       </c>
     </row>
